--- a/data-raw/metadata/yuba_upstream_passage_metadata.xlsx
+++ b/data-raw/metadata/yuba_upstream_passage_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-adult-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8BDA94-E94A-DF46-9F9E-C501F80DD7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D00304-89C4-684D-B67C-9E651190F511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68640" yWindow="-9480" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -67,9 +67,6 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>feetPerSecond</t>
-  </si>
-  <si>
-    <t>meter</t>
   </si>
   <si>
     <t>YYYY-MM-DD</t>
@@ -171,13 +162,19 @@
   <si>
     <t>hour</t>
   </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -238,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,14 +261,13 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -567,33 +563,33 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -611,33 +607,33 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -655,27 +651,29 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
       <c r="K4" s="11"/>
@@ -701,19 +699,19 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -739,26 +737,22 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
@@ -781,26 +775,22 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
@@ -823,34 +813,36 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="18">
+      <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="5">
         <v>24</v>
       </c>
       <c r="N8" s="1"/>
@@ -28667,13 +28659,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -28704,10 +28696,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
